--- a/main.xlsx
+++ b/main.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F936600-E8E4-4BAC-8E87-983697BF63FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmet\Documents\GitHub Projects\Take data from Excel - Python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CB7C9899-80EC-48BD-938C-8A6726703345}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
